--- a/时刻记录0403.xlsx
+++ b/时刻记录0403.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="2"/>
+    <workbookView windowWidth="20745" windowHeight="18300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1250,11 +1250,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1609,22 +1610,22 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.9166666666667" customWidth="1"/>
-    <col min="3" max="3" width="8.66666666666667" style="12"/>
-    <col min="4" max="4" width="6.5" style="12" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="12" customWidth="1"/>
-    <col min="6" max="6" width="5.08333333333333" style="12" customWidth="1"/>
+    <col min="3" max="3" width="8.66666666666667" style="13"/>
+    <col min="4" max="4" width="6.5" style="13" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="13" customWidth="1"/>
+    <col min="6" max="6" width="5.08333333333333" style="13" customWidth="1"/>
     <col min="7" max="7" width="4.58333333333333" customWidth="1"/>
     <col min="8" max="8" width="3.75" customWidth="1"/>
     <col min="9" max="9" width="3.41666666666667" customWidth="1"/>
-    <col min="10" max="10" width="8.83333333333333" style="13" customWidth="1"/>
-    <col min="11" max="11" width="5.25" style="12" customWidth="1"/>
-    <col min="12" max="12" width="5.08333333333333" style="12" customWidth="1"/>
-    <col min="13" max="13" width="5.66666666666667" style="12" customWidth="1"/>
+    <col min="10" max="10" width="8.83333333333333" style="14" customWidth="1"/>
+    <col min="11" max="11" width="5.25" style="13" customWidth="1"/>
+    <col min="12" max="12" width="5.08333333333333" style="13" customWidth="1"/>
+    <col min="13" max="13" width="5.66666666666667" style="13" customWidth="1"/>
     <col min="14" max="14" width="4" customWidth="1"/>
     <col min="15" max="15" width="3.83333333333333" customWidth="1"/>
     <col min="16" max="16" width="3.58333333333333" customWidth="1"/>
-    <col min="17" max="17" width="9" style="13"/>
-    <col min="18" max="18" width="9" style="12"/>
+    <col min="17" max="17" width="9" style="14"/>
+    <col min="18" max="18" width="9" style="13"/>
     <col min="20" max="20" width="22.3333333333333" customWidth="1"/>
     <col min="21" max="21" width="13.5833333333333" customWidth="1"/>
   </cols>
@@ -1636,16 +1637,16 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1657,16 +1658,16 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="N1" t="s">
@@ -1678,10 +1679,10 @@
       <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="16" t="s">
         <v>11</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -1692,16 +1693,16 @@
       <c r="B2" s="3">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="3">
@@ -1713,17 +1714,17 @@
       <c r="I2" s="3">
         <v>25</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="10">
         <f>TIME(D2,E2,F2)+TIME(G2,H2,I2)</f>
         <v>0.610324074074074</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="3">
@@ -1735,69 +1736,69 @@
       <c r="P2" s="3">
         <v>40</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="10">
         <f>TIME(K2,L2,M2)+TIME(N2,O2,P2)</f>
         <v>0.613969907407407</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:18">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="J3" s="9">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="J3" s="10">
         <v>0.651076388888889</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="Q3" s="9">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="Q3" s="10">
         <v>0.657002314814815</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:19">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="J4" s="9">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="J4" s="10">
         <v>0.797199074074074</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="Q4" s="9">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="Q4" s="10">
         <v>0.800358796296296</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1805,73 +1806,73 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="J5" s="9">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="J5" s="10">
         <v>0.822881944444445</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="Q5" s="9">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="Q5" s="10">
         <v>0.826041666666667</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="3:17">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="15">
         <f t="shared" ref="J6:J33" si="0">TIME(D6,E6,F6)+TIME(G6,H6,I6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="15">
         <f t="shared" ref="Q6:Q33" si="1">TIME(K6,L6,M6)+TIME(N6,O6,P6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:17">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:17">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="3:17">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1880,16 +1881,16 @@
       <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="3">
@@ -1901,17 +1902,17 @@
       <c r="I10" s="3">
         <v>11</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="10">
         <f t="shared" si="0"/>
         <v>0.566898148148148</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N10" s="3">
@@ -1923,14 +1924,14 @@
       <c r="P10" s="3">
         <v>12</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="10">
         <f t="shared" si="1"/>
         <v>0.570381944444444</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="R10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1938,16 +1939,16 @@
       <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="3">
@@ -1959,17 +1960,17 @@
       <c r="I11" s="3">
         <v>29</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="10">
         <f t="shared" si="0"/>
         <v>0.599085648148148</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N11" s="3">
@@ -1981,28 +1982,28 @@
       <c r="P11" s="3">
         <v>36</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="10">
         <f t="shared" si="1"/>
         <v>0.602638888888889</v>
       </c>
-      <c r="R11" s="10" t="s">
+      <c r="R11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="S11" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G12">
@@ -2014,17 +2015,17 @@
       <c r="I12">
         <v>44</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="15">
         <f t="shared" si="0"/>
         <v>0.809328703703704</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="13" t="s">
         <v>34</v>
       </c>
       <c r="N12">
@@ -2036,11 +2037,11 @@
       <c r="P12">
         <v>39</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="15">
         <f t="shared" si="1"/>
         <v>0.811354166666667</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="13">
         <v>780899</v>
       </c>
       <c r="S12" s="1" t="s">
@@ -2054,16 +2055,16 @@
       <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="3">
@@ -2075,17 +2076,17 @@
       <c r="I13" s="3">
         <v>23</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="10">
         <f t="shared" si="0"/>
         <v>0.829259259259259</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="N13" s="3">
@@ -2097,31 +2098,31 @@
       <c r="P13" s="3">
         <v>7</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="10">
         <f t="shared" si="1"/>
         <v>0.833240740740741</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="7">
         <v>780899</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:20">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="3">
@@ -2133,17 +2134,17 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="10">
         <f t="shared" si="0"/>
         <v>0.548935185185185</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="7" t="s">
         <v>40</v>
       </c>
       <c r="N14" s="3">
@@ -2155,17 +2156,17 @@
       <c r="P14" s="3">
         <v>46</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="10">
         <f t="shared" si="1"/>
         <v>0.550856481481481</v>
       </c>
-      <c r="R14" s="10" t="s">
+      <c r="R14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="S14" s="7" t="s">
+      <c r="S14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2173,16 +2174,16 @@
       <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G15" s="3">
@@ -2194,17 +2195,17 @@
       <c r="I15" s="3">
         <v>35</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="10">
         <f t="shared" si="0"/>
         <v>0.598020833333333</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="7" t="s">
         <v>43</v>
       </c>
       <c r="N15" s="3">
@@ -2216,14 +2217,14 @@
       <c r="P15" s="3">
         <v>53</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="10">
         <f t="shared" si="1"/>
         <v>0.601006944444444</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="R15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="S15" s="7" t="s">
+      <c r="S15" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2231,16 +2232,16 @@
       <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="3">
@@ -2252,17 +2253,17 @@
       <c r="I16" s="3">
         <v>9</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="10">
         <f t="shared" si="0"/>
         <v>0.774386574074074</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="7" t="s">
         <v>47</v>
       </c>
       <c r="N16" s="3">
@@ -2274,37 +2275,37 @@
       <c r="P16" s="3">
         <v>12</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="10">
         <f t="shared" si="1"/>
         <v>0.777233796296296</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="7">
         <v>780899</v>
       </c>
-      <c r="S16" s="7" t="s">
+      <c r="S16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="T16" s="7" t="s">
+      <c r="T16" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" ht="42.75" spans="1:19">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G17" s="3">
@@ -2316,17 +2317,17 @@
       <c r="I17" s="3">
         <v>39</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="10">
         <f t="shared" si="0"/>
         <v>0.821365740740741</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="7" t="s">
         <v>50</v>
       </c>
       <c r="N17" s="3">
@@ -2338,65 +2339,65 @@
       <c r="P17" s="3">
         <v>30</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="10">
         <f t="shared" si="1"/>
         <v>0.825428240740741</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="7">
         <v>780899</v>
       </c>
-      <c r="S17" s="7" t="s">
+      <c r="S17" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="3:17">
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q18" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:17">
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:17">
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q20" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:17">
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2405,16 +2406,16 @@
       <c r="B22" s="3">
         <v>2</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G22" s="3">
@@ -2426,17 +2427,17 @@
       <c r="I22" s="3">
         <v>26</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="10">
         <f t="shared" si="0"/>
         <v>0.741076388888889</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="7" t="s">
         <v>55</v>
       </c>
       <c r="N22" s="3">
@@ -2448,34 +2449,34 @@
       <c r="P22" s="3">
         <v>13</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="Q22" s="10">
         <f t="shared" si="1"/>
         <v>0.744398148148148</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="7">
         <v>780959</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="S22" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" spans="1:21">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G23" s="3">
@@ -2487,17 +2488,17 @@
       <c r="I23" s="3">
         <v>57</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="10">
         <f t="shared" si="0"/>
         <v>0.774803240740741</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="7" t="s">
         <v>57</v>
       </c>
       <c r="N23" s="3">
@@ -2509,17 +2510,17 @@
       <c r="P23" s="3">
         <v>46</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="Q23" s="10">
         <f t="shared" si="1"/>
         <v>0.780231481481481</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="7">
         <v>780959</v>
       </c>
-      <c r="S23" s="7" t="s">
+      <c r="S23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T23" s="16" t="s">
+      <c r="T23" s="17" t="s">
         <v>58</v>
       </c>
       <c r="U23" s="3" t="s">
@@ -2527,16 +2528,16 @@
       </c>
     </row>
     <row r="24" s="3" customFormat="1" spans="3:20">
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G24" s="3">
@@ -2548,17 +2549,17 @@
       <c r="I24" s="3">
         <v>54</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="10">
         <f t="shared" si="0"/>
         <v>0.776851851851852</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="7" t="s">
         <v>57</v>
       </c>
       <c r="N24" s="3">
@@ -2570,35 +2571,35 @@
       <c r="P24" s="3">
         <v>7</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="Q24" s="10">
         <f t="shared" si="1"/>
         <v>0.779780092592593</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24" s="7">
         <v>780538</v>
       </c>
-      <c r="S24" s="7" t="s">
+      <c r="S24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="T24" s="17"/>
+      <c r="T24" s="18"/>
     </row>
     <row r="25" s="3" customFormat="1" spans="1:19">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G25" s="3">
@@ -2610,17 +2611,17 @@
       <c r="I25" s="3">
         <v>0</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="10">
         <f t="shared" si="0"/>
         <v>0.822858796296296</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="7" t="s">
         <v>61</v>
       </c>
       <c r="N25" s="3">
@@ -2632,65 +2633,65 @@
       <c r="P25" s="3">
         <v>1</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="Q25" s="10">
         <f t="shared" si="1"/>
         <v>0.827037037037037</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="7">
         <v>780538</v>
       </c>
-      <c r="S25" s="7" t="s">
+      <c r="S25" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="3:17">
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="14">
+      <c r="Q26" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:17">
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="14">
+      <c r="Q27" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:17">
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="14">
+      <c r="Q28" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:17">
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="14">
+      <c r="Q29" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2699,16 +2700,16 @@
       <c r="B30" s="3">
         <v>2</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G30" s="3">
@@ -2720,17 +2721,17 @@
       <c r="I30" s="3">
         <v>41</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="10">
         <f t="shared" si="0"/>
         <v>0.542847222222222</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="7" t="s">
         <v>47</v>
       </c>
       <c r="N30" s="3">
@@ -2739,37 +2740,37 @@
       <c r="O30" s="3">
         <v>19</v>
       </c>
-      <c r="P30" s="6" t="s">
+      <c r="P30" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Q30" s="9">
+      <c r="Q30" s="10">
         <f t="shared" si="1"/>
         <v>0.546631944444444</v>
       </c>
-      <c r="R30" s="10" t="s">
+      <c r="R30" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="S30" s="7" t="s">
+      <c r="S30" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" s="3" customFormat="1" spans="1:19">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G31" s="3">
@@ -2781,17 +2782,17 @@
       <c r="I31" s="3">
         <v>10</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="10">
         <f t="shared" si="0"/>
         <v>0.588391203703704</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="7" t="s">
         <v>50</v>
       </c>
       <c r="N31" s="3">
@@ -2803,34 +2804,34 @@
       <c r="P31" s="3">
         <v>40</v>
       </c>
-      <c r="Q31" s="9">
+      <c r="Q31" s="10">
         <f t="shared" si="1"/>
         <v>0.592210648148148</v>
       </c>
-      <c r="R31" s="11" t="s">
+      <c r="R31" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="S31" s="7" t="s">
+      <c r="S31" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1" ht="28.5" spans="1:21">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G32" s="3">
@@ -2842,17 +2843,17 @@
       <c r="I32" s="3">
         <v>40</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="10">
         <f t="shared" si="0"/>
         <v>0.77724537037037</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K32" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="M32" s="7" t="s">
         <v>43</v>
       </c>
       <c r="N32" s="3">
@@ -2864,14 +2865,14 @@
       <c r="P32" s="3">
         <v>46</v>
       </c>
-      <c r="Q32" s="9">
+      <c r="Q32" s="10">
         <f t="shared" si="1"/>
         <v>0.780787037037037</v>
       </c>
-      <c r="R32" s="6">
+      <c r="R32" s="7">
         <v>780899</v>
       </c>
-      <c r="T32" s="7" t="s">
+      <c r="T32" s="8" t="s">
         <v>67</v>
       </c>
       <c r="U32" s="3" t="s">
@@ -2879,22 +2880,22 @@
       </c>
     </row>
     <row r="33" s="3" customFormat="1" spans="1:19">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B33" s="3">
         <v>2</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G33" s="3">
@@ -2906,17 +2907,17 @@
       <c r="I33" s="3">
         <v>14</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="10">
         <f t="shared" si="0"/>
         <v>0.827048611111111</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="M33" s="7" t="s">
         <v>55</v>
       </c>
       <c r="N33" s="3">
@@ -2928,52 +2929,52 @@
       <c r="P33" s="3">
         <v>59</v>
       </c>
-      <c r="Q33" s="9">
+      <c r="Q33" s="10">
         <f t="shared" si="1"/>
         <v>0.832430555555556</v>
       </c>
-      <c r="R33" s="6">
+      <c r="R33" s="7">
         <v>780899</v>
       </c>
-      <c r="S33" s="7" t="s">
+      <c r="S33" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="3:17">
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="15">
         <f t="shared" ref="J34:J71" si="2">TIME(D34,E34,F34)+TIME(G34,H34,I34)</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="14">
+      <c r="Q34" s="15">
         <f t="shared" ref="Q34:Q55" si="3">TIME(K34,L34,M34)+TIME(N34,O34,P34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:17">
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="14">
+      <c r="Q35" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:21">
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="14">
+      <c r="Q36" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2982,14 +2983,14 @@
       </c>
     </row>
     <row r="37" spans="3:17">
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="14">
+      <c r="Q37" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2998,16 +2999,16 @@
       <c r="B38" s="3">
         <v>2</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G38" s="3">
@@ -3019,17 +3020,17 @@
       <c r="I38" s="3">
         <v>50</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="10">
         <f t="shared" si="2"/>
         <v>0.648541666666667</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="K38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M38" s="6" t="s">
+      <c r="M38" s="7" t="s">
         <v>74</v>
       </c>
       <c r="N38" s="3">
@@ -3041,34 +3042,34 @@
       <c r="P38" s="3">
         <v>41</v>
       </c>
-      <c r="Q38" s="9">
+      <c r="Q38" s="10">
         <f t="shared" si="3"/>
         <v>0.651909722222222</v>
       </c>
-      <c r="R38" s="10" t="s">
+      <c r="R38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="S38" s="7" t="s">
+      <c r="S38" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" s="3" customFormat="1" spans="1:19">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G39" s="3">
@@ -3080,17 +3081,17 @@
       <c r="I39" s="3">
         <v>41</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="10">
         <f t="shared" si="2"/>
         <v>0.680416666666667</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K39" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="L39" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M39" s="6" t="s">
+      <c r="M39" s="7" t="s">
         <v>78</v>
       </c>
       <c r="N39" s="3">
@@ -3102,14 +3103,14 @@
       <c r="P39" s="3">
         <v>28</v>
       </c>
-      <c r="Q39" s="9">
+      <c r="Q39" s="10">
         <f t="shared" si="3"/>
         <v>0.686550925925926</v>
       </c>
-      <c r="R39" s="10" t="s">
+      <c r="R39" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="S39" s="7" t="s">
+      <c r="S39" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3117,16 +3118,16 @@
       <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="13" t="s">
         <v>80</v>
       </c>
       <c r="G40">
@@ -3138,17 +3139,17 @@
       <c r="I40">
         <v>14</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="15">
         <f t="shared" si="2"/>
         <v>0.782361111111111</v>
       </c>
-      <c r="K40" s="12" t="s">
+      <c r="K40" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="L40" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="M40" s="12" t="s">
+      <c r="M40" s="13" t="s">
         <v>80</v>
       </c>
       <c r="N40">
@@ -3160,11 +3161,11 @@
       <c r="P40">
         <v>53</v>
       </c>
-      <c r="Q40" s="14">
+      <c r="Q40" s="15">
         <f t="shared" si="3"/>
         <v>0.785590277777778</v>
       </c>
-      <c r="R40" s="15" t="s">
+      <c r="R40" s="16" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3172,16 +3173,16 @@
       <c r="B41" s="3">
         <v>1</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G41" s="3">
@@ -3193,17 +3194,17 @@
       <c r="I41" s="3">
         <v>1</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="10">
         <f t="shared" si="2"/>
         <v>0.823252314814815</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K41" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L41" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M41" s="6" t="s">
+      <c r="M41" s="7" t="s">
         <v>40</v>
       </c>
       <c r="N41" s="3">
@@ -3215,14 +3216,14 @@
       <c r="P41" s="3">
         <v>27</v>
       </c>
-      <c r="Q41" s="9">
+      <c r="Q41" s="10">
         <f t="shared" si="3"/>
         <v>0.827719907407407</v>
       </c>
-      <c r="R41" s="6">
+      <c r="R41" s="7">
         <v>780681</v>
       </c>
-      <c r="S41" s="7" t="s">
+      <c r="S41" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3230,16 +3231,16 @@
       <c r="B42" s="3">
         <v>1</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G42" s="3">
@@ -3251,17 +3252,17 @@
       <c r="I42" s="3">
         <v>33</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="10">
         <f t="shared" si="2"/>
         <v>0.539421296296296</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="K42" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="L42" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M42" s="6" t="s">
+      <c r="M42" s="7" t="s">
         <v>25</v>
       </c>
       <c r="N42" s="3">
@@ -3273,14 +3274,14 @@
       <c r="P42" s="3">
         <v>11</v>
       </c>
-      <c r="Q42" s="9">
+      <c r="Q42" s="10">
         <f t="shared" si="3"/>
         <v>0.542638888888889</v>
       </c>
-      <c r="R42" s="10" t="s">
+      <c r="R42" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="S42" s="7" t="s">
+      <c r="S42" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3288,16 +3289,16 @@
       <c r="B43" s="3">
         <v>1</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G43" s="3">
@@ -3309,17 +3310,17 @@
       <c r="I43" s="3">
         <v>38</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="10">
         <f t="shared" si="2"/>
         <v>0.591631944444444</v>
       </c>
-      <c r="K43" s="6" t="s">
+      <c r="K43" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M43" s="6" t="s">
+      <c r="M43" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N43" s="3">
@@ -3331,28 +3332,28 @@
       <c r="P43" s="3">
         <v>49</v>
       </c>
-      <c r="Q43" s="9">
+      <c r="Q43" s="10">
         <f t="shared" si="3"/>
         <v>0.595925925925926</v>
       </c>
-      <c r="R43" s="10" t="s">
+      <c r="R43" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="S43" s="7" t="s">
+      <c r="S43" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44" spans="3:21">
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="13" t="s">
         <v>57</v>
       </c>
       <c r="G44">
@@ -3364,17 +3365,17 @@
       <c r="I44">
         <v>8</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J44" s="15">
         <f t="shared" si="2"/>
         <v>0.788125</v>
       </c>
-      <c r="K44" s="12" t="s">
+      <c r="K44" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L44" s="12" t="s">
+      <c r="L44" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="M44" s="12" t="s">
+      <c r="M44" s="13" t="s">
         <v>84</v>
       </c>
       <c r="N44">
@@ -3386,11 +3387,11 @@
       <c r="P44">
         <v>46</v>
       </c>
-      <c r="Q44" s="14">
+      <c r="Q44" s="15">
         <f t="shared" si="3"/>
         <v>0.791377314814815</v>
       </c>
-      <c r="R44" s="15" t="s">
+      <c r="R44" s="16" t="s">
         <v>81</v>
       </c>
       <c r="U44" t="s">
@@ -3401,16 +3402,16 @@
       <c r="B45" s="3">
         <v>1</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="7" t="s">
         <v>86</v>
       </c>
       <c r="G45" s="3">
@@ -3422,17 +3423,17 @@
       <c r="I45" s="3">
         <v>30</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="10">
         <f t="shared" si="2"/>
         <v>0.823865740740741</v>
       </c>
-      <c r="K45" s="6" t="s">
+      <c r="K45" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="L45" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M45" s="6" t="s">
+      <c r="M45" s="7" t="s">
         <v>86</v>
       </c>
       <c r="N45" s="3">
@@ -3444,52 +3445,52 @@
       <c r="P45" s="3">
         <v>36</v>
       </c>
-      <c r="Q45" s="9">
+      <c r="Q45" s="10">
         <f t="shared" si="3"/>
         <v>0.828101851851852</v>
       </c>
-      <c r="R45" s="6">
+      <c r="R45" s="7">
         <v>780899</v>
       </c>
-      <c r="S45" s="7" t="s">
+      <c r="S45" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="3:17">
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J46" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="14">
+      <c r="Q46" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="3:17">
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="14">
+      <c r="Q47" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="3:21">
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="14">
+      <c r="Q48" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3498,29 +3499,29 @@
       </c>
     </row>
     <row r="49" spans="3:17">
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J49" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="14">
+      <c r="Q49" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="3:21">
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="13" t="s">
         <v>90</v>
       </c>
       <c r="G50">
@@ -3532,17 +3533,17 @@
       <c r="I50">
         <v>43</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="15">
         <f t="shared" si="2"/>
         <v>0.814155092592593</v>
       </c>
-      <c r="K50" s="12" t="s">
+      <c r="K50" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L50" s="12" t="s">
+      <c r="L50" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="M50" s="12" t="s">
+      <c r="M50" s="13" t="s">
         <v>90</v>
       </c>
       <c r="N50">
@@ -3554,34 +3555,34 @@
       <c r="P50">
         <v>58</v>
       </c>
-      <c r="Q50" s="14">
+      <c r="Q50" s="15">
         <f t="shared" si="3"/>
         <v>0.815717592592593</v>
       </c>
-      <c r="R50" s="15" t="s">
+      <c r="R50" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="U50" s="18" t="s">
+      <c r="U50" s="19" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="51" s="3" customFormat="1" ht="42.75" spans="1:21">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G51" s="3">
@@ -3593,17 +3594,17 @@
       <c r="I51" s="3">
         <v>3</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="10">
         <f t="shared" si="2"/>
         <v>0.838032407407407</v>
       </c>
-      <c r="K51" s="6" t="s">
+      <c r="K51" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L51" s="6" t="s">
+      <c r="L51" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M51" s="6" t="s">
+      <c r="M51" s="7" t="s">
         <v>55</v>
       </c>
       <c r="N51" s="3">
@@ -3615,115 +3616,115 @@
       <c r="P51" s="3">
         <v>42</v>
       </c>
-      <c r="Q51" s="9">
+      <c r="Q51" s="10">
         <f t="shared" si="3"/>
         <v>0.843344907407407</v>
       </c>
-      <c r="R51" s="10" t="s">
+      <c r="R51" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S51" s="7" t="s">
+      <c r="S51" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U51" s="19"/>
+      <c r="U51" s="20"/>
     </row>
     <row r="52" spans="3:21">
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="14">
+      <c r="Q52" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U52" s="19"/>
+      <c r="U52" s="20"/>
     </row>
     <row r="53" spans="3:21">
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J53" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q53" s="14">
+      <c r="Q53" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U53" s="19"/>
+      <c r="U53" s="20"/>
     </row>
     <row r="54" spans="3:21">
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J54" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q54" s="14">
+      <c r="Q54" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U54" s="19" t="s">
+      <c r="U54" s="20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="55" spans="3:21">
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J55" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q55" s="14">
+      <c r="Q55" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U55" s="19"/>
+      <c r="U55" s="20"/>
     </row>
     <row r="56" spans="3:21">
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J56" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q56" s="14">
+      <c r="Q56" s="15">
         <f t="shared" ref="Q56:Q71" si="4">TIME(K56,L56,M56)+TIME(N56,O56,P56)</f>
         <v>0</v>
       </c>
-      <c r="U56" s="19"/>
+      <c r="U56" s="20"/>
     </row>
     <row r="57" spans="3:21">
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J57" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="14">
+      <c r="Q57" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U57" s="19"/>
+      <c r="U57" s="20"/>
     </row>
     <row r="58" spans="3:20">
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="13" t="s">
         <v>84</v>
       </c>
       <c r="G58">
@@ -3735,17 +3736,17 @@
       <c r="I58">
         <v>21</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J58" s="15">
         <f t="shared" si="2"/>
         <v>0.555671296296296</v>
       </c>
-      <c r="K58" s="12" t="s">
+      <c r="K58" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L58" s="12" t="s">
+      <c r="L58" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="M58" s="12" t="s">
+      <c r="M58" s="13" t="s">
         <v>84</v>
       </c>
       <c r="N58">
@@ -3757,11 +3758,11 @@
       <c r="P58">
         <v>30</v>
       </c>
-      <c r="Q58" s="14">
+      <c r="Q58" s="15">
         <f t="shared" si="4"/>
         <v>0.559247685185185</v>
       </c>
-      <c r="R58" s="12">
+      <c r="R58" s="13">
         <v>781077</v>
       </c>
       <c r="S58" s="1" t="s">
@@ -3772,16 +3773,16 @@
       </c>
     </row>
     <row r="59" s="3" customFormat="1" spans="3:19">
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="7" t="s">
         <v>78</v>
       </c>
       <c r="G59" s="3">
@@ -3793,17 +3794,17 @@
       <c r="I59" s="3">
         <v>51</v>
       </c>
-      <c r="J59" s="9">
+      <c r="J59" s="10">
         <f t="shared" si="2"/>
         <v>0.706261574074074</v>
       </c>
-      <c r="K59" s="6" t="s">
+      <c r="K59" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L59" s="6" t="s">
+      <c r="L59" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M59" s="6" t="s">
+      <c r="M59" s="7" t="s">
         <v>25</v>
       </c>
       <c r="N59" s="3">
@@ -3815,26 +3816,26 @@
       <c r="P59" s="3">
         <v>31</v>
       </c>
-      <c r="Q59" s="9">
+      <c r="Q59" s="10">
         <f t="shared" si="4"/>
         <v>0.712314814814815</v>
       </c>
-      <c r="R59" s="6">
+      <c r="R59" s="7">
         <v>781077</v>
       </c>
-      <c r="S59" s="7" t="s">
+      <c r="S59" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="60" spans="3:21">
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J60" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q60" s="14">
+      <c r="Q60" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3843,87 +3844,87 @@
       </c>
     </row>
     <row r="61" spans="3:17">
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J61" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q61" s="14">
+      <c r="Q61" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="3:21">
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J62" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q62" s="14">
+      <c r="Q62" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U62" s="19" t="s">
+      <c r="U62" s="20" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="63" spans="3:21">
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J63" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q63" s="14">
+      <c r="Q63" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U63" s="19"/>
+      <c r="U63" s="20"/>
     </row>
     <row r="64" spans="3:21">
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J64" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q64" s="14">
+      <c r="Q64" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U64" s="19"/>
+      <c r="U64" s="20"/>
     </row>
     <row r="65" spans="3:21">
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J65" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q65" s="14">
+      <c r="Q65" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U65" s="19"/>
+      <c r="U65" s="20"/>
     </row>
     <row r="66" spans="3:21">
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F66" s="12" t="s">
+      <c r="F66" s="13" t="s">
         <v>78</v>
       </c>
       <c r="G66">
@@ -3935,17 +3936,17 @@
       <c r="I66">
         <v>5</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J66" s="15">
         <f t="shared" si="2"/>
         <v>0.796701388888889</v>
       </c>
-      <c r="K66" s="12" t="s">
+      <c r="K66" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L66" s="12" t="s">
+      <c r="L66" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="M66" s="12" t="s">
+      <c r="M66" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N66">
@@ -3957,28 +3958,28 @@
       <c r="P66">
         <v>51</v>
       </c>
-      <c r="Q66" s="14">
+      <c r="Q66" s="15">
         <f t="shared" si="4"/>
         <v>0.800046296296296</v>
       </c>
-      <c r="R66" s="15" t="s">
+      <c r="R66" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="U66" s="19" t="s">
+      <c r="U66" s="20" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="67" spans="3:21">
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F67" s="12" t="s">
+      <c r="F67" s="13" t="s">
         <v>77</v>
       </c>
       <c r="G67">
@@ -3990,17 +3991,17 @@
       <c r="I67">
         <v>55</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J67" s="15">
         <f t="shared" si="2"/>
         <v>0.83693287037037</v>
       </c>
-      <c r="K67" s="12" t="s">
+      <c r="K67" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L67" s="12" t="s">
+      <c r="L67" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="M67" s="12" t="s">
+      <c r="M67" s="13" t="s">
         <v>77</v>
       </c>
       <c r="N67">
@@ -4012,54 +4013,54 @@
       <c r="P67">
         <v>51</v>
       </c>
-      <c r="Q67" s="14">
+      <c r="Q67" s="15">
         <f t="shared" si="4"/>
         <v>0.840358796296296</v>
       </c>
-      <c r="R67" s="15" t="s">
+      <c r="R67" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="U67" s="19"/>
+      <c r="U67" s="20"/>
     </row>
     <row r="68" spans="3:21">
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J68" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q68" s="14">
+      <c r="Q68" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U68" s="19"/>
+      <c r="U68" s="20"/>
     </row>
     <row r="69" spans="3:21">
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="J69" s="14">
+      <c r="J69" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q69" s="14">
+      <c r="Q69" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U69" s="19"/>
+      <c r="U69" s="20"/>
     </row>
     <row r="70" spans="3:21">
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="F70" s="13" t="s">
         <v>45</v>
       </c>
       <c r="G70">
@@ -4071,17 +4072,17 @@
       <c r="I70">
         <v>17</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J70" s="15">
         <f t="shared" si="2"/>
         <v>0.540451388888889</v>
       </c>
-      <c r="K70" s="12" t="s">
+      <c r="K70" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L70" s="12" t="s">
+      <c r="L70" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M70" s="12" t="s">
+      <c r="M70" s="13" t="s">
         <v>45</v>
       </c>
       <c r="N70">
@@ -4093,28 +4094,28 @@
       <c r="P70">
         <v>29</v>
       </c>
-      <c r="Q70" s="14">
+      <c r="Q70" s="15">
         <f t="shared" si="4"/>
         <v>0.5440625</v>
       </c>
-      <c r="R70" s="15" t="s">
+      <c r="R70" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="U70" s="19" t="s">
+      <c r="U70" s="20" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="71" spans="3:21">
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="F71" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G71">
@@ -4126,17 +4127,17 @@
       <c r="I71">
         <v>34</v>
       </c>
-      <c r="J71" s="14">
+      <c r="J71" s="15">
         <f t="shared" si="2"/>
         <v>0.590717592592593</v>
       </c>
-      <c r="K71" s="12" t="s">
+      <c r="K71" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L71" s="12" t="s">
+      <c r="L71" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M71" s="12" t="s">
+      <c r="M71" s="13" t="s">
         <v>50</v>
       </c>
       <c r="N71">
@@ -4148,26 +4149,26 @@
       <c r="P71">
         <v>45</v>
       </c>
-      <c r="Q71" s="14">
+      <c r="Q71" s="15">
         <f t="shared" si="4"/>
         <v>0.594351851851852</v>
       </c>
-      <c r="R71" s="15" t="s">
+      <c r="R71" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="U71" s="19"/>
+      <c r="U71" s="20"/>
     </row>
     <row r="72" spans="3:21">
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F72" s="12" t="s">
+      <c r="F72" s="13" t="s">
         <v>89</v>
       </c>
       <c r="G72">
@@ -4179,17 +4180,17 @@
       <c r="I72">
         <v>43</v>
       </c>
-      <c r="J72" s="14">
+      <c r="J72" s="15">
         <f t="shared" ref="J72:J77" si="5">TIME(D72,E72,F72)+TIME(G72,H72,I72)</f>
         <v>0.776539351851852</v>
       </c>
-      <c r="K72" s="12" t="s">
+      <c r="K72" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L72" s="12" t="s">
+      <c r="L72" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M72" s="12" t="s">
+      <c r="M72" s="13" t="s">
         <v>107</v>
       </c>
       <c r="N72">
@@ -4201,29 +4202,29 @@
       <c r="P72">
         <v>32</v>
       </c>
-      <c r="Q72" s="14">
+      <c r="Q72" s="15">
         <f t="shared" ref="Q72:Q77" si="6">TIME(K72,L72,M72)+TIME(N72,O72,P72)</f>
         <v>0.779918981481481</v>
       </c>
-      <c r="R72" s="15" t="s">
+      <c r="R72" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="U72" s="19"/>
+      <c r="U72" s="20"/>
     </row>
     <row r="73" s="3" customFormat="1" spans="1:21">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="F73" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G73" s="3">
@@ -4235,17 +4236,17 @@
       <c r="I73" s="3">
         <v>33</v>
       </c>
-      <c r="J73" s="9">
+      <c r="J73" s="10">
         <f t="shared" si="5"/>
         <v>0.827916666666667</v>
       </c>
-      <c r="K73" s="6" t="s">
+      <c r="K73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L73" s="6" t="s">
+      <c r="L73" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M73" s="6" t="s">
+      <c r="M73" s="7" t="s">
         <v>46</v>
       </c>
       <c r="N73" s="3">
@@ -4257,29 +4258,29 @@
       <c r="P73" s="3">
         <v>12</v>
       </c>
-      <c r="Q73" s="9">
+      <c r="Q73" s="10">
         <f t="shared" si="6"/>
         <v>0.833229166666667</v>
       </c>
-      <c r="R73" s="10" t="s">
+      <c r="R73" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S73" s="7" t="s">
+      <c r="S73" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U73" s="19"/>
+      <c r="U73" s="20"/>
     </row>
     <row r="74" spans="3:21">
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="12" t="s">
+      <c r="F74" s="13" t="s">
         <v>94</v>
       </c>
       <c r="G74">
@@ -4291,17 +4292,17 @@
       <c r="I74">
         <v>32</v>
       </c>
-      <c r="J74" s="14">
+      <c r="J74" s="15">
         <f t="shared" si="5"/>
         <v>0.385787037037037</v>
       </c>
-      <c r="K74" s="12" t="s">
+      <c r="K74" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="L74" s="12" t="s">
+      <c r="L74" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="M74" s="12" t="s">
+      <c r="M74" s="13" t="s">
         <v>94</v>
       </c>
       <c r="N74">
@@ -4313,31 +4314,31 @@
       <c r="P74">
         <v>19</v>
       </c>
-      <c r="Q74" s="14">
+      <c r="Q74" s="15">
         <f t="shared" si="6"/>
         <v>0.389108796296296</v>
       </c>
-      <c r="R74" s="15" t="s">
+      <c r="R74" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="U74" s="18" t="s">
+      <c r="U74" s="19" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="75" s="3" customFormat="1" ht="42.75" spans="1:21">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="F75" s="7" t="s">
         <v>114</v>
       </c>
       <c r="G75" s="3">
@@ -4349,17 +4350,17 @@
       <c r="I75" s="3">
         <v>37</v>
       </c>
-      <c r="J75" s="9">
+      <c r="J75" s="10">
         <f t="shared" si="5"/>
         <v>0.419212962962963</v>
       </c>
-      <c r="K75" s="6" t="s">
+      <c r="K75" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L75" s="6" t="s">
+      <c r="L75" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M75" s="6" t="s">
+      <c r="M75" s="7" t="s">
         <v>114</v>
       </c>
       <c r="N75" s="3">
@@ -4371,29 +4372,29 @@
       <c r="P75" s="3">
         <v>53</v>
       </c>
-      <c r="Q75" s="9">
+      <c r="Q75" s="10">
         <f t="shared" si="6"/>
         <v>0.424259259259259</v>
       </c>
-      <c r="R75" s="10" t="s">
+      <c r="R75" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="S75" s="7" t="s">
+      <c r="S75" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="U75" s="19"/>
+      <c r="U75" s="20"/>
     </row>
     <row r="76" spans="3:21">
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F76" s="12" t="s">
+      <c r="F76" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G76">
@@ -4405,17 +4406,17 @@
       <c r="I76">
         <v>37</v>
       </c>
-      <c r="J76" s="14">
+      <c r="J76" s="15">
         <f t="shared" si="5"/>
         <v>0.520081018518519</v>
       </c>
-      <c r="K76" s="12" t="s">
+      <c r="K76" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L76" s="12" t="s">
+      <c r="L76" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="M76" s="12" t="s">
+      <c r="M76" s="13" t="s">
         <v>44</v>
       </c>
       <c r="N76">
@@ -4427,26 +4428,26 @@
       <c r="P76">
         <v>18</v>
       </c>
-      <c r="Q76" s="14">
+      <c r="Q76" s="15">
         <f t="shared" si="6"/>
         <v>0.523333333333333</v>
       </c>
-      <c r="R76" s="15" t="s">
+      <c r="R76" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="U76" s="19"/>
+      <c r="U76" s="20"/>
     </row>
     <row r="77" spans="3:21">
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D77" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="12" t="s">
+      <c r="F77" s="13" t="s">
         <v>117</v>
       </c>
       <c r="G77">
@@ -4458,17 +4459,17 @@
       <c r="I77">
         <v>54</v>
       </c>
-      <c r="J77" s="14">
+      <c r="J77" s="15">
         <f t="shared" si="5"/>
         <v>0.560625</v>
       </c>
-      <c r="K77" s="12" t="s">
+      <c r="K77" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L77" s="12" t="s">
+      <c r="L77" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="M77" s="12" t="s">
+      <c r="M77" s="13" t="s">
         <v>117</v>
       </c>
       <c r="N77">
@@ -4480,26 +4481,26 @@
       <c r="P77">
         <v>4</v>
       </c>
-      <c r="Q77" s="14">
+      <c r="Q77" s="15">
         <f t="shared" si="6"/>
         <v>0.564907407407407</v>
       </c>
-      <c r="R77" s="15" t="s">
+      <c r="R77" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="U77" s="19"/>
+      <c r="U77" s="20"/>
     </row>
     <row r="78" spans="3:21">
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D78" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F78" s="12" t="s">
+      <c r="F78" s="13" t="s">
         <v>36</v>
       </c>
       <c r="G78">
@@ -4511,17 +4512,17 @@
       <c r="I78">
         <v>45</v>
       </c>
-      <c r="J78" s="14">
+      <c r="J78" s="15">
         <f t="shared" ref="J78:J121" si="7">TIME(D78,E78,F78)+TIME(G78,H78,I78)</f>
         <v>0.698263888888889</v>
       </c>
-      <c r="K78" s="12" t="s">
+      <c r="K78" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="L78" s="12" t="s">
+      <c r="L78" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="M78" s="12" t="s">
+      <c r="M78" s="13" t="s">
         <v>36</v>
       </c>
       <c r="N78">
@@ -4533,26 +4534,26 @@
       <c r="P78">
         <v>38</v>
       </c>
-      <c r="Q78" s="14">
+      <c r="Q78" s="15">
         <f t="shared" ref="Q78:Q121" si="8">TIME(K78,L78,M78)+TIME(N78,O78,P78)</f>
         <v>0.701655092592593</v>
       </c>
-      <c r="R78" s="15" t="s">
+      <c r="R78" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="U78" s="19"/>
+      <c r="U78" s="20"/>
     </row>
     <row r="79" spans="3:21">
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F79" s="12" t="s">
+      <c r="F79" s="13" t="s">
         <v>64</v>
       </c>
       <c r="G79">
@@ -4564,17 +4565,17 @@
       <c r="I79">
         <v>4</v>
       </c>
-      <c r="J79" s="14">
+      <c r="J79" s="15">
         <f t="shared" si="7"/>
         <v>0.746435185185185</v>
       </c>
-      <c r="K79" s="12" t="s">
+      <c r="K79" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="L79" s="12" t="s">
+      <c r="L79" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="M79" s="12" t="s">
+      <c r="M79" s="13" t="s">
         <v>64</v>
       </c>
       <c r="N79">
@@ -4586,11 +4587,11 @@
       <c r="P79">
         <v>26</v>
       </c>
-      <c r="Q79" s="14">
+      <c r="Q79" s="15">
         <f t="shared" si="8"/>
         <v>0.751550925925926</v>
       </c>
-      <c r="R79" s="15" t="s">
+      <c r="R79" s="16" t="s">
         <v>118</v>
       </c>
       <c r="S79" s="1" t="s">
@@ -4599,19 +4600,19 @@
       <c r="T79" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="U79" s="19"/>
+      <c r="U79" s="20"/>
     </row>
     <row r="80" spans="3:18">
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E80" s="12" t="s">
+      <c r="E80" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F80" s="12" t="s">
+      <c r="F80" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G80">
@@ -4623,17 +4624,17 @@
       <c r="I80">
         <v>39</v>
       </c>
-      <c r="J80" s="14">
+      <c r="J80" s="15">
         <f t="shared" si="7"/>
         <v>0.8978125</v>
       </c>
-      <c r="K80" s="12" t="s">
+      <c r="K80" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="L80" s="12" t="s">
+      <c r="L80" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="M80" s="12" t="s">
+      <c r="M80" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N80">
@@ -4645,25 +4646,25 @@
       <c r="P80">
         <v>54</v>
       </c>
-      <c r="Q80" s="14">
+      <c r="Q80" s="15">
         <f t="shared" si="8"/>
         <v>0.901458333333333</v>
       </c>
-      <c r="R80" s="15" t="s">
+      <c r="R80" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="81" spans="3:18">
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="D81" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E81" s="12" t="s">
+      <c r="E81" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F81" s="12" t="s">
+      <c r="F81" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G81">
@@ -4675,17 +4676,17 @@
       <c r="I81">
         <v>43</v>
       </c>
-      <c r="J81" s="14">
+      <c r="J81" s="15">
         <f t="shared" si="7"/>
         <v>0.934733796296296</v>
       </c>
-      <c r="K81" s="12" t="s">
+      <c r="K81" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="L81" s="12" t="s">
+      <c r="L81" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="M81" s="12" t="s">
+      <c r="M81" s="13" t="s">
         <v>44</v>
       </c>
       <c r="N81">
@@ -4697,25 +4698,25 @@
       <c r="P81">
         <v>32</v>
       </c>
-      <c r="Q81" s="14">
+      <c r="Q81" s="15">
         <f t="shared" si="8"/>
         <v>0.938078703703704</v>
       </c>
-      <c r="R81" s="15" t="s">
+      <c r="R81" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="82" spans="3:18">
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E82" s="12" t="s">
+      <c r="E82" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F82" s="12" t="s">
+      <c r="F82" s="13" t="s">
         <v>123</v>
       </c>
       <c r="G82">
@@ -4727,17 +4728,17 @@
       <c r="I82">
         <v>30</v>
       </c>
-      <c r="J82" s="14">
+      <c r="J82" s="15">
         <f t="shared" si="7"/>
         <v>0.607916666666667</v>
       </c>
-      <c r="K82" s="12" t="s">
+      <c r="K82" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L82" s="12" t="s">
+      <c r="L82" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M82" s="12" t="s">
+      <c r="M82" s="13" t="s">
         <v>123</v>
       </c>
       <c r="N82">
@@ -4749,25 +4750,25 @@
       <c r="P82">
         <v>56</v>
       </c>
-      <c r="Q82" s="14">
+      <c r="Q82" s="15">
         <f t="shared" si="8"/>
         <v>0.609606481481481</v>
       </c>
-      <c r="R82" s="15" t="s">
+      <c r="R82" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="83" s="3" customFormat="1" spans="3:19">
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="F83" s="7" t="s">
         <v>124</v>
       </c>
       <c r="G83" s="3">
@@ -4779,17 +4780,17 @@
       <c r="I83" s="3">
         <v>23</v>
       </c>
-      <c r="J83" s="9">
+      <c r="J83" s="10">
         <f t="shared" si="7"/>
         <v>0.634953703703704</v>
       </c>
-      <c r="K83" s="6" t="s">
+      <c r="K83" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L83" s="6" t="s">
+      <c r="L83" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="M83" s="6" t="s">
+      <c r="M83" s="7" t="s">
         <v>94</v>
       </c>
       <c r="N83" s="3">
@@ -4801,28 +4802,28 @@
       <c r="P83" s="3">
         <v>26</v>
       </c>
-      <c r="Q83" s="9">
+      <c r="Q83" s="10">
         <f t="shared" si="8"/>
         <v>0.640578703703704</v>
       </c>
-      <c r="R83" s="10" t="s">
+      <c r="R83" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="S83" s="7" t="s">
+      <c r="S83" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="84" spans="3:18">
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E84" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F84" s="12" t="s">
+      <c r="F84" s="13" t="s">
         <v>121</v>
       </c>
       <c r="G84">
@@ -4834,17 +4835,17 @@
       <c r="I84">
         <v>53</v>
       </c>
-      <c r="J84" s="14">
+      <c r="J84" s="15">
         <f t="shared" si="7"/>
         <v>0.798773148148148</v>
       </c>
-      <c r="K84" s="12" t="s">
+      <c r="K84" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L84" s="12" t="s">
+      <c r="L84" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="M84" s="12" t="s">
+      <c r="M84" s="13" t="s">
         <v>121</v>
       </c>
       <c r="N84">
@@ -4856,25 +4857,25 @@
       <c r="P84">
         <v>43</v>
       </c>
-      <c r="Q84" s="14">
+      <c r="Q84" s="15">
         <f t="shared" si="8"/>
         <v>0.80212962962963</v>
       </c>
-      <c r="R84" s="12" t="s">
+      <c r="R84" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="85" spans="3:18">
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D85" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="E85" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F85" s="12" t="s">
+      <c r="F85" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G85">
@@ -4886,17 +4887,17 @@
       <c r="I85">
         <v>20</v>
       </c>
-      <c r="J85" s="14">
+      <c r="J85" s="15">
         <f t="shared" si="7"/>
         <v>0.82693287037037</v>
       </c>
-      <c r="K85" s="12" t="s">
+      <c r="K85" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L85" s="12" t="s">
+      <c r="L85" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="M85" s="12" t="s">
+      <c r="M85" s="13" t="s">
         <v>16</v>
       </c>
       <c r="N85">
@@ -4908,83 +4909,83 @@
       <c r="P85">
         <v>4</v>
       </c>
-      <c r="Q85" s="14">
+      <c r="Q85" s="15">
         <f t="shared" si="8"/>
         <v>0.830914351851852</v>
       </c>
-      <c r="R85" s="12" t="s">
+      <c r="R85" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="86" spans="3:21">
-      <c r="C86" s="12" t="s">
+      <c r="C86" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="J86" s="14">
+      <c r="J86" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q86" s="14">
+      <c r="Q86" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U86" s="19" t="s">
+      <c r="U86" s="20" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="87" spans="3:21">
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="J87" s="14">
+      <c r="J87" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q87" s="14">
+      <c r="Q87" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U87" s="19"/>
+      <c r="U87" s="20"/>
     </row>
     <row r="88" spans="3:21">
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="J88" s="14">
+      <c r="J88" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q88" s="14">
+      <c r="Q88" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U88" s="19"/>
+      <c r="U88" s="20"/>
     </row>
     <row r="89" spans="3:21">
-      <c r="C89" s="12" t="s">
+      <c r="C89" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="J89" s="14">
+      <c r="J89" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q89" s="14">
+      <c r="Q89" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U89" s="19"/>
+      <c r="U89" s="20"/>
     </row>
     <row r="90" spans="3:18">
-      <c r="C90" s="12" t="s">
+      <c r="C90" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D90" s="12" t="s">
+      <c r="D90" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E90" s="12" t="s">
+      <c r="E90" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F90" s="12" t="s">
+      <c r="F90" s="13" t="s">
         <v>110</v>
       </c>
       <c r="G90">
@@ -4996,17 +4997,17 @@
       <c r="I90">
         <v>16</v>
       </c>
-      <c r="J90" s="14">
+      <c r="J90" s="15">
         <f t="shared" si="7"/>
         <v>0.792650462962963</v>
       </c>
-      <c r="K90" s="12" t="s">
+      <c r="K90" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L90" s="12" t="s">
+      <c r="L90" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="M90" s="12" t="s">
+      <c r="M90" s="13" t="s">
         <v>110</v>
       </c>
       <c r="N90">
@@ -5018,25 +5019,25 @@
       <c r="P90">
         <v>33</v>
       </c>
-      <c r="Q90" s="14">
+      <c r="Q90" s="15">
         <f t="shared" si="8"/>
         <v>0.795625</v>
       </c>
-      <c r="R90" s="15" t="s">
+      <c r="R90" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="91" spans="3:18">
-      <c r="C91" s="12" t="s">
+      <c r="C91" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D91" s="12" t="s">
+      <c r="D91" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E91" s="12" t="s">
+      <c r="E91" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F91" s="12" t="s">
+      <c r="F91" s="13" t="s">
         <v>72</v>
       </c>
       <c r="G91">
@@ -5048,17 +5049,17 @@
       <c r="I91">
         <v>28</v>
       </c>
-      <c r="J91" s="14">
+      <c r="J91" s="15">
         <f t="shared" si="7"/>
         <v>0.828969907407407</v>
       </c>
-      <c r="K91" s="12" t="s">
+      <c r="K91" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L91" s="12" t="s">
+      <c r="L91" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="M91" s="12" t="s">
+      <c r="M91" s="13" t="s">
         <v>72</v>
       </c>
       <c r="N91">
@@ -5070,109 +5071,109 @@
       <c r="P91">
         <v>7</v>
       </c>
-      <c r="Q91" s="14">
+      <c r="Q91" s="15">
         <f t="shared" si="8"/>
         <v>0.832199074074074</v>
       </c>
-      <c r="R91" s="15" t="s">
+      <c r="R91" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="92" spans="3:17">
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="J92" s="14">
+      <c r="J92" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q92" s="14">
+      <c r="Q92" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="3:17">
-      <c r="C93" s="12" t="s">
+      <c r="C93" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="J93" s="14">
+      <c r="J93" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q93" s="14">
+      <c r="Q93" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="3:21">
-      <c r="C94" s="12" t="s">
+      <c r="C94" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="J94" s="14">
+      <c r="J94" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q94" s="14">
+      <c r="Q94" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U94" s="19" t="s">
+      <c r="U94" s="20" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="95" spans="3:21">
-      <c r="C95" s="12" t="s">
+      <c r="C95" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="J95" s="14">
+      <c r="J95" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q95" s="14">
+      <c r="Q95" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U95" s="19"/>
+      <c r="U95" s="20"/>
     </row>
     <row r="96" spans="3:21">
-      <c r="C96" s="12" t="s">
+      <c r="C96" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="J96" s="14">
+      <c r="J96" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q96" s="14">
+      <c r="Q96" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U96" s="19"/>
+      <c r="U96" s="20"/>
     </row>
     <row r="97" spans="3:21">
-      <c r="C97" s="12" t="s">
+      <c r="C97" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="J97" s="14">
+      <c r="J97" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q97" s="14">
+      <c r="Q97" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U97" s="19"/>
+      <c r="U97" s="20"/>
     </row>
     <row r="98" spans="3:21">
-      <c r="C98" s="12" t="s">
+      <c r="C98" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D98" s="12" t="s">
+      <c r="D98" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E98" s="12" t="s">
+      <c r="E98" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F98" s="12" t="s">
+      <c r="F98" s="13" t="s">
         <v>121</v>
       </c>
       <c r="G98">
@@ -5184,17 +5185,17 @@
       <c r="I98">
         <v>31</v>
       </c>
-      <c r="J98" s="14">
+      <c r="J98" s="15">
         <f t="shared" si="7"/>
         <v>0.549907407407407</v>
       </c>
-      <c r="K98" s="12" t="s">
+      <c r="K98" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L98" s="12" t="s">
+      <c r="L98" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M98" s="12" t="s">
+      <c r="M98" s="13" t="s">
         <v>121</v>
       </c>
       <c r="N98">
@@ -5206,28 +5207,28 @@
       <c r="P98">
         <v>26</v>
       </c>
-      <c r="Q98" s="14">
+      <c r="Q98" s="15">
         <f t="shared" si="8"/>
         <v>0.554710648148148</v>
       </c>
-      <c r="R98" s="15" t="s">
+      <c r="R98" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="U98" s="18" t="s">
+      <c r="U98" s="19" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="99" spans="3:21">
-      <c r="C99" s="12" t="s">
+      <c r="C99" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D99" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E99" s="12" t="s">
+      <c r="E99" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F99" s="12" t="s">
+      <c r="F99" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G99">
@@ -5239,17 +5240,17 @@
       <c r="I99">
         <v>23</v>
       </c>
-      <c r="J99" s="14">
+      <c r="J99" s="15">
         <f t="shared" si="7"/>
         <v>0.595717592592593</v>
       </c>
-      <c r="K99" s="12" t="s">
+      <c r="K99" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L99" s="12" t="s">
+      <c r="L99" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M99" s="12" t="s">
+      <c r="M99" s="13" t="s">
         <v>16</v>
       </c>
       <c r="N99">
@@ -5261,26 +5262,26 @@
       <c r="P99">
         <v>11</v>
       </c>
-      <c r="Q99" s="14">
+      <c r="Q99" s="15">
         <f t="shared" si="8"/>
         <v>0.600439814814815</v>
       </c>
-      <c r="R99" s="15" t="s">
+      <c r="R99" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="U99" s="19"/>
+      <c r="U99" s="20"/>
     </row>
     <row r="100" spans="3:21">
-      <c r="C100" s="12" t="s">
+      <c r="C100" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D100" s="12" t="s">
+      <c r="D100" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E100" s="12" t="s">
+      <c r="E100" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F100" s="12" t="s">
+      <c r="F100" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G100">
@@ -5292,17 +5293,17 @@
       <c r="I100">
         <v>15</v>
       </c>
-      <c r="J100" s="14">
+      <c r="J100" s="15">
         <f t="shared" si="7"/>
         <v>0.853020833333333</v>
       </c>
-      <c r="K100" s="12" t="s">
+      <c r="K100" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="L100" s="12" t="s">
+      <c r="L100" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M100" s="12" t="s">
+      <c r="M100" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N100">
@@ -5314,26 +5315,26 @@
       <c r="P100">
         <v>22</v>
       </c>
-      <c r="Q100" s="14">
+      <c r="Q100" s="15">
         <f t="shared" si="8"/>
         <v>0.85587962962963</v>
       </c>
-      <c r="R100" s="15" t="s">
+      <c r="R100" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="U100" s="19"/>
+      <c r="U100" s="20"/>
     </row>
     <row r="101" spans="3:21">
-      <c r="C101" s="12" t="s">
+      <c r="C101" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D101" s="12" t="s">
+      <c r="D101" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E101" s="12" t="s">
+      <c r="E101" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="12" t="s">
+      <c r="F101" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G101">
@@ -5345,17 +5346,17 @@
       <c r="I101">
         <v>52</v>
       </c>
-      <c r="J101" s="14">
+      <c r="J101" s="15">
         <f t="shared" si="7"/>
         <v>0.896574074074074</v>
       </c>
-      <c r="K101" s="12" t="s">
+      <c r="K101" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="L101" s="12" t="s">
+      <c r="L101" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M101" s="12" t="s">
+      <c r="M101" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N101">
@@ -5367,11 +5368,11 @@
       <c r="P101">
         <v>37</v>
       </c>
-      <c r="Q101" s="14">
+      <c r="Q101" s="15">
         <f t="shared" si="8"/>
         <v>0.902650462962963</v>
       </c>
-      <c r="R101" s="15" t="s">
+      <c r="R101" s="16" t="s">
         <v>134</v>
       </c>
       <c r="S101" s="1" t="s">
@@ -5380,19 +5381,19 @@
       <c r="T101" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="U101" s="19"/>
+      <c r="U101" s="20"/>
     </row>
     <row r="102" spans="3:18">
-      <c r="C102" s="12" t="s">
+      <c r="C102" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D102" s="12" t="s">
+      <c r="D102" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E102" s="12" t="s">
+      <c r="E102" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F102" s="12" t="s">
+      <c r="F102" s="13" t="s">
         <v>121</v>
       </c>
       <c r="G102">
@@ -5404,17 +5405,17 @@
       <c r="I102">
         <v>15</v>
       </c>
-      <c r="J102" s="14">
+      <c r="J102" s="15">
         <f t="shared" si="7"/>
         <v>0.796944444444444</v>
       </c>
-      <c r="K102" s="12" t="s">
+      <c r="K102" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L102" s="12" t="s">
+      <c r="L102" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="M102" s="12" t="s">
+      <c r="M102" s="13" t="s">
         <v>121</v>
       </c>
       <c r="N102">
@@ -5426,25 +5427,25 @@
       <c r="P102">
         <v>58</v>
       </c>
-      <c r="Q102" s="14">
+      <c r="Q102" s="15">
         <f t="shared" si="8"/>
         <v>0.800219907407407</v>
       </c>
-      <c r="R102" s="15" t="s">
+      <c r="R102" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="103" spans="3:18">
-      <c r="C103" s="12" t="s">
+      <c r="C103" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D103" s="12" t="s">
+      <c r="D103" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E103" s="12" t="s">
+      <c r="E103" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F103" s="12" t="s">
+      <c r="F103" s="13" t="s">
         <v>117</v>
       </c>
       <c r="G103">
@@ -5456,17 +5457,17 @@
       <c r="I103">
         <v>8</v>
       </c>
-      <c r="J103" s="14">
+      <c r="J103" s="15">
         <f t="shared" si="7"/>
         <v>0.827453703703704</v>
       </c>
-      <c r="K103" s="12" t="s">
+      <c r="K103" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L103" s="12" t="s">
+      <c r="L103" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="M103" s="12" t="s">
+      <c r="M103" s="13" t="s">
         <v>117</v>
       </c>
       <c r="N103">
@@ -5478,109 +5479,109 @@
       <c r="P103">
         <v>52</v>
       </c>
-      <c r="Q103" s="14">
+      <c r="Q103" s="15">
         <f t="shared" si="8"/>
         <v>0.831435185185185</v>
       </c>
-      <c r="R103" s="15" t="s">
+      <c r="R103" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="104" spans="3:17">
-      <c r="C104" s="12" t="s">
+      <c r="C104" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="J104" s="14">
+      <c r="J104" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q104" s="14">
+      <c r="Q104" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="3:17">
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="J105" s="14">
+      <c r="J105" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q105" s="14">
+      <c r="Q105" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="3:21">
-      <c r="C106" s="12" t="s">
+      <c r="C106" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="J106" s="14">
+      <c r="J106" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q106" s="14">
+      <c r="Q106" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U106" s="19" t="s">
+      <c r="U106" s="20" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="107" spans="3:21">
-      <c r="C107" s="12" t="s">
+      <c r="C107" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="J107" s="14">
+      <c r="J107" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q107" s="14">
+      <c r="Q107" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U107" s="19"/>
+      <c r="U107" s="20"/>
     </row>
     <row r="108" spans="3:21">
-      <c r="C108" s="12" t="s">
+      <c r="C108" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="J108" s="14">
+      <c r="J108" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q108" s="14">
+      <c r="Q108" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U108" s="19"/>
+      <c r="U108" s="20"/>
     </row>
     <row r="109" spans="3:21">
-      <c r="C109" s="12" t="s">
+      <c r="C109" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="J109" s="14">
+      <c r="J109" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q109" s="14">
+      <c r="Q109" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U109" s="19"/>
+      <c r="U109" s="20"/>
     </row>
     <row r="110" spans="3:18">
-      <c r="C110" s="12" t="s">
+      <c r="C110" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D110" s="12" t="s">
+      <c r="D110" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E110" s="12" t="s">
+      <c r="E110" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F110" s="12" t="s">
+      <c r="F110" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G110">
@@ -5592,17 +5593,17 @@
       <c r="I110">
         <v>24</v>
       </c>
-      <c r="J110" s="14">
+      <c r="J110" s="15">
         <f t="shared" si="7"/>
         <v>0.793402777777778</v>
       </c>
-      <c r="K110" s="12" t="s">
+      <c r="K110" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L110" s="12" t="s">
+      <c r="L110" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="M110" s="12" t="s">
+      <c r="M110" s="13" t="s">
         <v>110</v>
       </c>
       <c r="N110">
@@ -5614,25 +5615,25 @@
       <c r="P110">
         <v>16</v>
       </c>
-      <c r="Q110" s="14">
+      <c r="Q110" s="15">
         <f t="shared" si="8"/>
         <v>0.795428240740741</v>
       </c>
-      <c r="R110" s="15" t="s">
+      <c r="R110" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="111" spans="3:20">
-      <c r="C111" s="12" t="s">
+      <c r="C111" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D111" s="12" t="s">
+      <c r="D111" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E111" s="12" t="s">
+      <c r="E111" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F111" s="12" t="s">
+      <c r="F111" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G111">
@@ -5644,17 +5645,17 @@
       <c r="I111">
         <v>5</v>
       </c>
-      <c r="J111" s="14">
+      <c r="J111" s="15">
         <f t="shared" si="7"/>
         <v>0.827974537037037</v>
       </c>
-      <c r="K111" s="12" t="s">
+      <c r="K111" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L111" s="12" t="s">
+      <c r="L111" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="M111" s="12" t="s">
+      <c r="M111" s="13" t="s">
         <v>31</v>
       </c>
       <c r="N111">
@@ -5666,11 +5667,11 @@
       <c r="P111">
         <v>44</v>
       </c>
-      <c r="Q111" s="14">
+      <c r="Q111" s="15">
         <f t="shared" si="8"/>
         <v>0.831898148148148</v>
       </c>
-      <c r="R111" s="15" t="s">
+      <c r="R111" s="16" t="s">
         <v>141</v>
       </c>
       <c r="S111" s="1" t="s">
@@ -5681,100 +5682,100 @@
       </c>
     </row>
     <row r="112" spans="3:17">
-      <c r="C112" s="12" t="s">
+      <c r="C112" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="J112" s="14">
+      <c r="J112" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q112" s="14">
+      <c r="Q112" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="3:17">
-      <c r="C113" s="12" t="s">
+      <c r="C113" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="J113" s="14">
+      <c r="J113" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q113" s="14">
+      <c r="Q113" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="3:21">
-      <c r="C114" s="12" t="s">
+      <c r="C114" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="J114" s="14">
+      <c r="J114" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q114" s="14">
+      <c r="Q114" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U114" s="19" t="s">
+      <c r="U114" s="20" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="115" spans="3:21">
-      <c r="C115" s="12" t="s">
+      <c r="C115" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="J115" s="14">
+      <c r="J115" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q115" s="14">
+      <c r="Q115" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U115" s="19"/>
+      <c r="U115" s="20"/>
     </row>
     <row r="116" spans="3:21">
-      <c r="C116" s="12" t="s">
+      <c r="C116" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="J116" s="14">
+      <c r="J116" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q116" s="14">
+      <c r="Q116" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U116" s="19"/>
+      <c r="U116" s="20"/>
     </row>
     <row r="117" spans="3:21">
-      <c r="C117" s="12" t="s">
+      <c r="C117" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="J117" s="14">
+      <c r="J117" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q117" s="14">
+      <c r="Q117" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U117" s="19"/>
+      <c r="U117" s="20"/>
     </row>
     <row r="118" spans="3:18">
-      <c r="C118" s="12" t="s">
+      <c r="C118" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D118" s="12" t="s">
+      <c r="D118" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E118" s="12" t="s">
+      <c r="E118" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="F118" s="12" t="s">
+      <c r="F118" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G118">
@@ -5786,17 +5787,17 @@
       <c r="I118">
         <v>9</v>
       </c>
-      <c r="J118" s="14">
+      <c r="J118" s="15">
         <f t="shared" si="7"/>
         <v>0.539201388888889</v>
       </c>
-      <c r="K118" s="12" t="s">
+      <c r="K118" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L118" s="12" t="s">
+      <c r="L118" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="M118" s="12" t="s">
+      <c r="M118" s="13" t="s">
         <v>44</v>
       </c>
       <c r="N118">
@@ -5808,25 +5809,25 @@
       <c r="P118">
         <v>52</v>
       </c>
-      <c r="Q118" s="14">
+      <c r="Q118" s="15">
         <f t="shared" si="8"/>
         <v>0.542476851851852</v>
       </c>
-      <c r="R118" s="15" t="s">
+      <c r="R118" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="119" spans="3:20">
-      <c r="C119" s="12" t="s">
+      <c r="C119" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D119" s="12" t="s">
+      <c r="D119" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E119" s="12" t="s">
+      <c r="E119" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F119" s="12" t="s">
+      <c r="F119" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G119">
@@ -5838,17 +5839,17 @@
       <c r="I119">
         <v>21</v>
       </c>
-      <c r="J119" s="14">
+      <c r="J119" s="15">
         <f t="shared" si="7"/>
         <v>0.602638888888889</v>
       </c>
-      <c r="K119" s="12" t="s">
+      <c r="K119" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L119" s="12" t="s">
+      <c r="L119" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M119" s="12" t="s">
+      <c r="M119" s="13" t="s">
         <v>16</v>
       </c>
       <c r="N119">
@@ -5860,11 +5861,11 @@
       <c r="P119">
         <v>57</v>
       </c>
-      <c r="Q119" s="14">
+      <c r="Q119" s="15">
         <f t="shared" si="8"/>
         <v>0.606527777777778</v>
       </c>
-      <c r="R119" s="15" t="s">
+      <c r="R119" s="16" t="s">
         <v>147</v>
       </c>
       <c r="S119" s="1" t="s">
@@ -5875,16 +5876,16 @@
       </c>
     </row>
     <row r="120" spans="3:18">
-      <c r="C120" s="12" t="s">
+      <c r="C120" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D120" s="12" t="s">
+      <c r="D120" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E120" s="12" t="s">
+      <c r="E120" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="F120" s="12" t="s">
+      <c r="F120" s="13" t="s">
         <v>123</v>
       </c>
       <c r="G120">
@@ -5896,17 +5897,17 @@
       <c r="I120">
         <v>6</v>
       </c>
-      <c r="J120" s="14">
+      <c r="J120" s="15">
         <f t="shared" si="7"/>
         <v>0.78125</v>
       </c>
-      <c r="K120" s="12" t="s">
+      <c r="K120" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L120" s="12" t="s">
+      <c r="L120" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="M120" s="12" t="s">
+      <c r="M120" s="13" t="s">
         <v>123</v>
       </c>
       <c r="N120">
@@ -5918,25 +5919,25 @@
       <c r="P120">
         <v>31</v>
       </c>
-      <c r="Q120" s="14">
+      <c r="Q120" s="15">
         <f t="shared" si="8"/>
         <v>0.78431712962963</v>
       </c>
-      <c r="R120" s="15" t="s">
+      <c r="R120" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="121" spans="3:18">
-      <c r="C121" s="12" t="s">
+      <c r="C121" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D121" s="12" t="s">
+      <c r="D121" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E121" s="12" t="s">
+      <c r="E121" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F121" s="12" t="s">
+      <c r="F121" s="13" t="s">
         <v>94</v>
       </c>
       <c r="G121">
@@ -5948,17 +5949,17 @@
       <c r="I121">
         <v>11</v>
       </c>
-      <c r="J121" s="14">
+      <c r="J121" s="15">
         <f t="shared" si="7"/>
         <v>0.831377314814815</v>
       </c>
-      <c r="K121" s="12" t="s">
+      <c r="K121" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L121" s="12" t="s">
+      <c r="L121" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M121" s="12" t="s">
+      <c r="M121" s="13" t="s">
         <v>94</v>
       </c>
       <c r="N121">
@@ -5970,11 +5971,11 @@
       <c r="P121">
         <v>31</v>
       </c>
-      <c r="Q121" s="14">
+      <c r="Q121" s="15">
         <f t="shared" si="8"/>
         <v>0.835775462962963</v>
       </c>
-      <c r="R121" s="15" t="s">
+      <c r="R121" s="16" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6021,16 +6022,16 @@
       <c r="B1" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="3">
@@ -6042,17 +6043,17 @@
       <c r="I1" s="3">
         <v>25</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="10">
         <f>TIME(D1,E1,F1)+TIME(G1,H1,I1)</f>
         <v>0.610324074074074</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="3">
@@ -6064,69 +6065,69 @@
       <c r="P1" s="3">
         <v>40</v>
       </c>
-      <c r="Q1" s="9">
+      <c r="Q1" s="10">
         <f>TIME(K1,L1,M1)+TIME(N1,O1,P1)</f>
         <v>0.613969907407407</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:18">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="J2" s="9">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="J2" s="10">
         <v>0.651076388888889</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="Q2" s="9">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="Q2" s="10">
         <v>0.657002314814815</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:19">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="J3" s="9">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="J3" s="10">
         <v>0.797199074074074</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="Q3" s="9">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="Q3" s="10">
         <v>0.800358796296296</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6134,22 +6135,22 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="J4" s="9">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="J4" s="10">
         <v>0.822881944444445</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="Q4" s="9">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="Q4" s="10">
         <v>0.826041666666667</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6157,16 +6158,16 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="3">
@@ -6178,17 +6179,17 @@
       <c r="I5" s="3">
         <v>11</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="10">
         <f t="shared" ref="J5:J25" si="0">TIME(D5,E5,F5)+TIME(G5,H5,I5)</f>
         <v>0.566898148148148</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N5" s="3">
@@ -6200,14 +6201,14 @@
       <c r="P5" s="3">
         <v>12</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="10">
         <f t="shared" ref="Q5:Q25" si="1">TIME(K5,L5,M5)+TIME(N5,O5,P5)</f>
         <v>0.570381944444444</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6215,16 +6216,16 @@
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="3">
@@ -6236,17 +6237,17 @@
       <c r="I6" s="3">
         <v>29</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="10">
         <f t="shared" si="0"/>
         <v>0.599085648148148</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N6" s="3">
@@ -6258,14 +6259,14 @@
       <c r="P6" s="3">
         <v>36</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="10">
         <f t="shared" si="1"/>
         <v>0.602638888888889</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6273,16 +6274,16 @@
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="3">
@@ -6294,17 +6295,17 @@
       <c r="I7" s="3">
         <v>23</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="10">
         <f t="shared" si="0"/>
         <v>0.829259259259259</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="N7" s="3">
@@ -6316,31 +6317,31 @@
       <c r="P7" s="3">
         <v>7</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="10">
         <f t="shared" si="1"/>
         <v>0.833240740740741</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="7">
         <v>780899</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:20">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="3">
@@ -6352,17 +6353,17 @@
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="10">
         <f t="shared" si="0"/>
         <v>0.548935185185185</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="N8" s="3">
@@ -6374,17 +6375,17 @@
       <c r="P8" s="3">
         <v>46</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="10">
         <f t="shared" si="1"/>
         <v>0.550856481481481</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="R8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="S8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="T8" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6392,16 +6393,16 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="3">
@@ -6413,17 +6414,17 @@
       <c r="I9" s="3">
         <v>35</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="10">
         <f t="shared" si="0"/>
         <v>0.598020833333333</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="N9" s="3">
@@ -6435,14 +6436,14 @@
       <c r="P9" s="3">
         <v>53</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="10">
         <f t="shared" si="1"/>
         <v>0.601006944444444</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="R9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="S9" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6450,16 +6451,16 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G10" s="3">
@@ -6471,17 +6472,17 @@
       <c r="I10" s="3">
         <v>9</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="10">
         <f t="shared" si="0"/>
         <v>0.774386574074074</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="7" t="s">
         <v>47</v>
       </c>
       <c r="N10" s="3">
@@ -6493,37 +6494,37 @@
       <c r="P10" s="3">
         <v>12</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="10">
         <f t="shared" si="1"/>
         <v>0.777233796296296</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="7">
         <v>780899</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="71.25" spans="1:19">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="3">
@@ -6535,17 +6536,17 @@
       <c r="I11" s="3">
         <v>39</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="10">
         <f t="shared" si="0"/>
         <v>0.821365740740741</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="7" t="s">
         <v>50</v>
       </c>
       <c r="N11" s="3">
@@ -6557,14 +6558,14 @@
       <c r="P11" s="3">
         <v>30</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="10">
         <f t="shared" si="1"/>
         <v>0.825428240740741</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="7">
         <v>780899</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="S11" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6572,16 +6573,16 @@
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G12" s="3">
@@ -6593,17 +6594,17 @@
       <c r="I12" s="3">
         <v>26</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="10">
         <f t="shared" si="0"/>
         <v>0.741076388888889</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="7" t="s">
         <v>55</v>
       </c>
       <c r="N12" s="3">
@@ -6615,34 +6616,34 @@
       <c r="P12" s="3">
         <v>13</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="10">
         <f t="shared" si="1"/>
         <v>0.744398148148148</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="7">
         <v>780959</v>
       </c>
-      <c r="S12" s="7" t="s">
+      <c r="S12" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:21">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G13" s="3">
@@ -6654,17 +6655,17 @@
       <c r="I13" s="3">
         <v>57</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="10">
         <f t="shared" si="0"/>
         <v>0.774803240740741</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="7" t="s">
         <v>57</v>
       </c>
       <c r="N13" s="3">
@@ -6676,14 +6677,14 @@
       <c r="P13" s="3">
         <v>46</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="10">
         <f t="shared" si="1"/>
         <v>0.780231481481481</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="7">
         <v>780959</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="S13" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T13"/>
@@ -6692,22 +6693,22 @@
       </c>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:19">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G14" s="3">
@@ -6719,17 +6720,17 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="10">
         <f t="shared" si="0"/>
         <v>0.822858796296296</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="7" t="s">
         <v>61</v>
       </c>
       <c r="N14" s="3">
@@ -6741,14 +6742,14 @@
       <c r="P14" s="3">
         <v>1</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="10">
         <f t="shared" si="1"/>
         <v>0.827037037037037</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="7">
         <v>780538</v>
       </c>
-      <c r="S14" s="7" t="s">
+      <c r="S14" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6756,16 +6757,16 @@
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="3">
@@ -6777,17 +6778,17 @@
       <c r="I15" s="3">
         <v>41</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="10">
         <f t="shared" si="0"/>
         <v>0.542847222222222</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="7" t="s">
         <v>47</v>
       </c>
       <c r="N15" s="3">
@@ -6796,37 +6797,37 @@
       <c r="O15" s="3">
         <v>19</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="P15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="10">
         <f t="shared" si="1"/>
         <v>0.546631944444444</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="R15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="S15" s="7" t="s">
+      <c r="S15" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:19">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G16" s="3">
@@ -6838,17 +6839,17 @@
       <c r="I16" s="3">
         <v>10</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="10">
         <f t="shared" si="0"/>
         <v>0.588391203703704</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="N16" s="3">
@@ -6860,34 +6861,34 @@
       <c r="P16" s="3">
         <v>40</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="10">
         <f t="shared" si="1"/>
         <v>0.592210648148148</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="S16" s="7" t="s">
+      <c r="S16" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" ht="57" spans="1:21">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="3">
@@ -6899,17 +6900,17 @@
       <c r="I17" s="3">
         <v>40</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="10">
         <f t="shared" si="0"/>
         <v>0.77724537037037</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="7" t="s">
         <v>43</v>
       </c>
       <c r="N17" s="3">
@@ -6921,14 +6922,14 @@
       <c r="P17" s="3">
         <v>46</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="10">
         <f t="shared" si="1"/>
         <v>0.780787037037037</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="7">
         <v>780899</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="T17" s="8" t="s">
         <v>67</v>
       </c>
       <c r="U17" s="3" t="s">
@@ -6936,22 +6937,22 @@
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:19">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G18" s="3">
@@ -6963,17 +6964,17 @@
       <c r="I18" s="3">
         <v>14</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="10">
         <f t="shared" si="0"/>
         <v>0.827048611111111</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="7" t="s">
         <v>55</v>
       </c>
       <c r="N18" s="3">
@@ -6985,14 +6986,14 @@
       <c r="P18" s="3">
         <v>59</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="10">
         <f t="shared" si="1"/>
         <v>0.832430555555556</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="7">
         <v>780899</v>
       </c>
-      <c r="S18" s="7" t="s">
+      <c r="S18" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -7000,16 +7001,16 @@
       <c r="B19" s="3">
         <v>1</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G19" s="3">
@@ -7021,17 +7022,17 @@
       <c r="I19" s="3">
         <v>50</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="10">
         <f t="shared" si="0"/>
         <v>0.648541666666667</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="7" t="s">
         <v>74</v>
       </c>
       <c r="N19" s="3">
@@ -7043,34 +7044,34 @@
       <c r="P19" s="3">
         <v>41</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="Q19" s="10">
         <f t="shared" si="1"/>
         <v>0.651909722222222</v>
       </c>
-      <c r="R19" s="10" t="s">
+      <c r="R19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="S19" s="7" t="s">
+      <c r="S19" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" spans="1:19">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G20" s="3">
@@ -7082,17 +7083,17 @@
       <c r="I20" s="3">
         <v>41</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="10">
         <f t="shared" si="0"/>
         <v>0.680416666666667</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="7" t="s">
         <v>78</v>
       </c>
       <c r="N20" s="3">
@@ -7104,14 +7105,14 @@
       <c r="P20" s="3">
         <v>28</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="10">
         <f t="shared" si="1"/>
         <v>0.686550925925926</v>
       </c>
-      <c r="R20" s="10" t="s">
+      <c r="R20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="S20" s="7" t="s">
+      <c r="S20" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7119,16 +7120,16 @@
       <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G21" s="3">
@@ -7140,17 +7141,17 @@
       <c r="I21" s="3">
         <v>1</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="10">
         <f t="shared" si="0"/>
         <v>0.823252314814815</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="7" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="3">
@@ -7162,14 +7163,14 @@
       <c r="P21" s="3">
         <v>27</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="10">
         <f t="shared" si="1"/>
         <v>0.827719907407407</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="7">
         <v>780681</v>
       </c>
-      <c r="S21" s="7" t="s">
+      <c r="S21" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -7177,16 +7178,16 @@
       <c r="B22" s="3">
         <v>1</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G22" s="3">
@@ -7198,17 +7199,17 @@
       <c r="I22" s="3">
         <v>33</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="10">
         <f t="shared" si="0"/>
         <v>0.539421296296296</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="N22" s="3">
@@ -7220,14 +7221,14 @@
       <c r="P22" s="3">
         <v>11</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="Q22" s="10">
         <f t="shared" si="1"/>
         <v>0.542638888888889</v>
       </c>
-      <c r="R22" s="10" t="s">
+      <c r="R22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="S22" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7235,16 +7236,16 @@
       <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G23" s="3">
@@ -7256,17 +7257,17 @@
       <c r="I23" s="3">
         <v>38</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="10">
         <f t="shared" si="0"/>
         <v>0.591631944444444</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N23" s="3">
@@ -7278,14 +7279,14 @@
       <c r="P23" s="3">
         <v>49</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="Q23" s="10">
         <f t="shared" si="1"/>
         <v>0.595925925925926</v>
       </c>
-      <c r="R23" s="10" t="s">
+      <c r="R23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="S23" s="7" t="s">
+      <c r="S23" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7293,16 +7294,16 @@
       <c r="B24" s="3">
         <v>1</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="7" t="s">
         <v>86</v>
       </c>
       <c r="G24" s="3">
@@ -7314,17 +7315,17 @@
       <c r="I24" s="3">
         <v>30</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="10">
         <f t="shared" si="0"/>
         <v>0.823865740740741</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="7" t="s">
         <v>86</v>
       </c>
       <c r="N24" s="3">
@@ -7336,34 +7337,34 @@
       <c r="P24" s="3">
         <v>36</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="Q24" s="10">
         <f t="shared" si="1"/>
         <v>0.828101851851852</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24" s="7">
         <v>780899</v>
       </c>
-      <c r="S24" s="7" t="s">
+      <c r="S24" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" ht="57" spans="1:21">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G25" s="3">
@@ -7375,17 +7376,17 @@
       <c r="I25" s="3">
         <v>3</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="10">
         <f t="shared" si="0"/>
         <v>0.838032407407407</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="7" t="s">
         <v>55</v>
       </c>
       <c r="N25" s="3">
@@ -7397,14 +7398,14 @@
       <c r="P25" s="3">
         <v>42</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="Q25" s="10">
         <f t="shared" si="1"/>
         <v>0.843344907407407</v>
       </c>
-      <c r="R25" s="10" t="s">
+      <c r="R25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S25" s="7" t="s">
+      <c r="S25" s="8" t="s">
         <v>51</v>
       </c>
       <c r="U25"/>
@@ -7422,7 +7423,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7472,7 +7473,7 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="O2" s="5"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="1" t="s">
@@ -7514,7 +7515,7 @@
       <c r="K4">
         <v>273</v>
       </c>
-      <c r="O4" s="5"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" t="s">
@@ -7561,7 +7562,7 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="O6" s="5"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" t="s">
@@ -7600,8 +7601,8 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="O8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" t="s">
@@ -7623,7 +7624,8 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="O9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" t="s">
@@ -7644,7 +7646,7 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="5"/>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="2:15">
@@ -7666,9 +7668,10 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="2:9">
+      <c r="L11" s="6"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12" t="s">
         <v>160</v>
       </c>
@@ -7687,6 +7690,7 @@
       <c r="I12">
         <v>1</v>
       </c>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" t="s">
@@ -7707,9 +7711,9 @@
       <c r="I13">
         <v>2</v>
       </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="2:9">
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14" t="s">
         <v>162</v>
       </c>
@@ -7729,6 +7733,7 @@
       <c r="I14">
         <v>1</v>
       </c>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" t="s">
@@ -7749,9 +7754,9 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="2:9">
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="2:12">
       <c r="B16" t="s">
         <v>164</v>
       </c>
@@ -7770,8 +7775,9 @@
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:9">
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" t="s">
         <v>165</v>
       </c>
@@ -7787,8 +7793,9 @@
       <c r="I17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:9">
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="2:12">
       <c r="B18" t="s">
         <v>166</v>
       </c>
@@ -7807,8 +7814,9 @@
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:9">
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
         <v>167</v>
       </c>
@@ -7828,8 +7836,9 @@
       <c r="I19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:9">
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="2:12">
       <c r="B20" t="s">
         <v>168</v>
       </c>
@@ -7848,8 +7857,9 @@
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:9">
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" t="s">
         <v>169</v>
       </c>
@@ -7868,6 +7878,7 @@
       <c r="I21">
         <v>1</v>
       </c>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" t="s">
@@ -7888,9 +7899,9 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="2:9">
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="2:12">
       <c r="B23" t="s">
         <v>171</v>
       </c>
@@ -7909,6 +7920,7 @@
       <c r="I23">
         <v>1</v>
       </c>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" t="s">
@@ -7929,9 +7941,9 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="2:9">
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="2:12">
       <c r="B25" t="s">
         <v>173</v>
       </c>
@@ -7950,6 +7962,7 @@
       <c r="I25">
         <v>1</v>
       </c>
+      <c r="L25" s="6"/>
     </row>
     <row r="26" spans="9:9">
       <c r="I26">
